--- a/data/trans_dic/P36B13_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_2023-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,43; 94,67</t>
+          <t>82,09; 94,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,96; 95,61</t>
+          <t>84,92; 95,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,64; 94,17</t>
+          <t>86,18; 94,44</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>88,52; 94,12</t>
+          <t>88,43; 94,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,7; 94,6</t>
+          <t>90,69; 94,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,45; 93,92</t>
+          <t>90,52; 93,82</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,36; 90,43</t>
+          <t>85,03; 90,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,25; 91,64</t>
+          <t>88,3; 91,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,47; 90,53</t>
+          <t>87,29; 90,45</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,6; 76,28</t>
+          <t>68,71; 75,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,38; 90,1</t>
+          <t>81,15; 89,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,42; 83,42</t>
+          <t>76,58; 83,75</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,34; 87,52</t>
+          <t>82,32; 87,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,49; 88,53</t>
+          <t>84,67; 88,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,38; 87,56</t>
+          <t>84,18; 87,43</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,1; 86,06</t>
+          <t>82,98; 86,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,24; 89,65</t>
+          <t>87,2; 89,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,58; 87,51</t>
+          <t>85,61; 87,48</t>
         </is>
       </c>
     </row>
